--- a/doc/verify/load/graphs_IAT_tests.xlsx
+++ b/doc/verify/load/graphs_IAT_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ljurcisi\Desktop\results load test\IAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BCF858-F217-4806-83EA-57CBBD0E35EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B20A3F3-BD77-42A8-A132-06AC0AF7BDD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{F8B534BF-53E2-4801-847C-7363B0192F93}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="16">
   <si>
     <t>Label</t>
   </si>
@@ -68,6 +68,15 @@
   </si>
   <si>
     <t>Check status</t>
+  </si>
+  <si>
+    <t>AVG SUM</t>
+  </si>
+  <si>
+    <t>THG SUM</t>
+  </si>
+  <si>
+    <t>ERR SUM</t>
   </si>
 </sst>
 </file>
@@ -111,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -124,6 +133,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -176,6 +186,14 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Total</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Average response vs Users</a:t>
             </a:r>
           </a:p>
@@ -256,114 +274,72 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>total!$C$3:$C$18</c:f>
+              <c:f>(total!$C$3,total!$C$5,total!$C$7,total!$C$9,total!$C$11,total!$C$13,total!$C$15,total!$C$17,total!$C$19)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>400</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1200</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4746</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9170</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17658</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>total!$D$3:$D$18</c:f>
+              <c:f>(total!$M$3,total!$M$5,total!$M$7,total!$M$9,total!$M$11,total!$M$13,total!$M$15,total!$M$17,total!$M$19)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>187</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>123</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>120</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74</c:v>
+                  <c:v>603</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>120</c:v>
+                  <c:v>2219</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74</c:v>
+                  <c:v>4324</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>529</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1798</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>421</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3343</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>981</c:v>
+                  <c:v>9717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -371,7 +347,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3A6C-40FE-BB2E-1B689C0DB5C5}"/>
+              <c16:uniqueId val="{00000000-ED6A-491C-826A-5E21E27956B0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -673,6 +649,14 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Total</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Error rate</a:t>
             </a:r>
             <a:r>
@@ -722,7 +706,7 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -738,7 +722,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -749,11 +733,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -761,67 +745,46 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>total!$C$3:$C$18</c:f>
+              <c:f>(total!$C$3,total!$C$5,total!$C$7,total!$C$9,total!$C$11,total!$C$13,total!$C$15,total!$C$17,total!$C$19)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>400</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1200</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4746</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9170</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17658</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>total!$H$3:$H$18</c:f>
+              <c:f>(total!$N$3,total!$N$5,total!$N$7,total!$N$9,total!$N$11,total!$N$13,total!$N$15,total!$N$17,total!$N$19)</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -838,37 +801,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.2564001264222502E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>9.0633519629225695E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.16413167898402992</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.6875000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.6890012642224997E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.7187499999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.3446019629225701E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.12046875</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.3662928984029903E-2</c:v>
+                  <c:v>0.40278745757377699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -876,7 +818,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2DE1-4BFF-97FB-461A736B4D7F}"/>
+              <c16:uniqueId val="{00000000-9706-4CF3-9634-68EED19B7D9A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1178,7 +1120,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Throughput</a:t>
+              <a:t>Total Throughput</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -1274,114 +1216,72 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>total!$C$3:$C$18</c:f>
+              <c:f>(total!$C$3,total!$C$5,total!$C$7,total!$C$9,total!$C$11,total!$C$13,total!$C$15,total!$C$17,total!$C$19)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>400</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1200</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4746</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9170</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17658</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(total!$I$3,total!$I$4,total!$I$5,total!$I$6:$I$7,total!$I$8,total!$I$9,total!$I$10:$I$18)</c:f>
+              <c:f>(total!$O$3,total!$O$5,total!$O$7,total!$O$9,total!$O$11,total!$O$13,total!$O$15,total!$O$17,total!$O$19)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.402754843126988</c:v>
+                  <c:v>1.591542200769698</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1887873576427099</c:v>
+                  <c:v>3.3216064848388243</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84148876191758404</c:v>
+                  <c:v>6.6150296631882499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4801177229212401</c:v>
+                  <c:v>13.095958693627619</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.67529443299659</c:v>
+                  <c:v>26.161393662326429</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9397352301916602</c:v>
+                  <c:v>43.664820208321203</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3168045904575498</c:v>
+                  <c:v>46.952759777444399</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.7791541031700699</c:v>
+                  <c:v>58.950167038917904</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.62553314837053</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19.5358605139559</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.1298928052199</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>32.5349274031013</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.218963831867001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>34.733795945577398</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.742027523951201</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43.208139514966703</c:v>
+                  <c:v>55.700885488864699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1389,7 +1289,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2546-449B-80B6-DB5743177812}"/>
+              <c16:uniqueId val="{00000000-0FC3-4AE6-9A0E-E1BC67332F6A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1764,43 +1664,46 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>('By Steps'!$C$3,'By Steps'!$C$5,'By Steps'!$C$7,'By Steps'!$C$9,'By Steps'!$C$11,'By Steps'!$C$13,'By Steps'!$C$15,'By Steps'!$C$17)</c:f>
+              <c:f>('By Steps'!$C$3,'By Steps'!$C$5,'By Steps'!$C$7,'By Steps'!$C$9,'By Steps'!$C$11,'By Steps'!$C$13,'By Steps'!$C$15,'By Steps'!$C$17,'By Steps'!$C$19)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>800</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1600</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3200</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6400</c:v>
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('By Steps'!$D$4,'By Steps'!$D$6,'By Steps'!$D$8,'By Steps'!$D$10,'By Steps'!$D$12,'By Steps'!$D$14,'By Steps'!$D$16,'By Steps'!$D$18)</c:f>
+              <c:f>('By Steps'!$D$4,'By Steps'!$D$6,'By Steps'!$D$8,'By Steps'!$D$10,'By Steps'!$D$12,'By Steps'!$D$14,'By Steps'!$D$16,'By Steps'!$D$18,'By Steps'!$D$20)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>107</c:v>
                 </c:pt>
@@ -1824,6 +1727,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1919,43 +1825,46 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>('By Steps'!$C$3,'By Steps'!$C$5,'By Steps'!$C$7,'By Steps'!$C$9,'By Steps'!$C$11,'By Steps'!$C$13,'By Steps'!$C$15,'By Steps'!$C$17)</c:f>
+              <c:f>('By Steps'!$C$3,'By Steps'!$C$5,'By Steps'!$C$7,'By Steps'!$C$9,'By Steps'!$C$11,'By Steps'!$C$13,'By Steps'!$C$15,'By Steps'!$C$17,'By Steps'!$C$19)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>800</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1600</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3200</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6400</c:v>
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('By Steps'!$D$3,'By Steps'!$D$5,'By Steps'!$D$7,'By Steps'!$D$9,'By Steps'!$D$11,'By Steps'!$D$13,'By Steps'!$D$15,'By Steps'!$D$17)</c:f>
+              <c:f>('By Steps'!$D$3,'By Steps'!$D$5,'By Steps'!$D$7,'By Steps'!$D$9,'By Steps'!$D$11,'By Steps'!$D$13,'By Steps'!$D$15,'By Steps'!$D$17,'By Steps'!$D$19)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>187</c:v>
                 </c:pt>
@@ -1979,6 +1888,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3343</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2332,43 +2244,49 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>('By Steps'!$C$3,'By Steps'!$C$5,'By Steps'!$C$7,'By Steps'!$C$9,'By Steps'!$C$11,'By Steps'!$C$13,'By Steps'!$C$15,'By Steps'!$C$17)</c:f>
+              <c:f>('By Steps'!$C$3,'By Steps'!$C$5,'By Steps'!$C$7,'By Steps'!$C$9,'By Steps'!$C$11,'By Steps'!$C$13,'By Steps'!$C$15,'By Steps'!$C$17,'By Steps'!$C$19,'By Steps'!$C$19)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>800</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1600</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3200</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6400</c:v>
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('By Steps'!$H$3,'By Steps'!$H$5,'By Steps'!$H$7,'By Steps'!$H$9,'By Steps'!$H$11,'By Steps'!$H$13,'By Steps'!$H$15,'By Steps'!$H$17)</c:f>
+              <c:f>('By Steps'!$H$3,'By Steps'!$H$5,'By Steps'!$H$7,'By Steps'!$H$9,'By Steps'!$H$11,'By Steps'!$H$13,'By Steps'!$H$15,'By Steps'!$H$17,'By Steps'!$H$19)</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2392,6 +2310,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.12046875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.27304687500000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2443,43 +2364,49 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>('By Steps'!$C$3,'By Steps'!$C$5,'By Steps'!$C$7,'By Steps'!$C$9,'By Steps'!$C$11,'By Steps'!$C$13,'By Steps'!$C$15,'By Steps'!$C$17)</c:f>
+              <c:f>('By Steps'!$C$3,'By Steps'!$C$5,'By Steps'!$C$7,'By Steps'!$C$9,'By Steps'!$C$11,'By Steps'!$C$13,'By Steps'!$C$15,'By Steps'!$C$17,'By Steps'!$C$19,'By Steps'!$C$19)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>800</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1600</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3200</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6400</c:v>
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('By Steps'!$H$4,'By Steps'!$H$6,'By Steps'!$H$8,'By Steps'!$H$10,'By Steps'!$H$12,'By Steps'!$H$14,'By Steps'!$H$16,'By Steps'!$H$18)</c:f>
+              <c:f>('By Steps'!$H$4,'By Steps'!$H$6,'By Steps'!$H$8,'By Steps'!$H$10,'By Steps'!$H$12,'By Steps'!$H$14,'By Steps'!$H$16,'By Steps'!$H$18,'By Steps'!$H$20)</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2503,6 +2430,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4.3662928984029903E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12974058257377699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5003,13 +4933,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>323849</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>320040</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
@@ -5039,13 +4969,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>325755</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>131445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>321946</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>160019</xdr:rowOff>
@@ -5083,7 +5013,7 @@
       <xdr:rowOff>51434</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>7621</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>161923</xdr:rowOff>
@@ -5494,10 +5424,882 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02FE5D5-3ABD-43C7-A23F-A04DA3B2CD27}">
+  <dimension ref="B2:O42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="5.21875" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>187</v>
+      </c>
+      <c r="E3" s="2">
+        <v>110</v>
+      </c>
+      <c r="F3" s="2">
+        <v>869</v>
+      </c>
+      <c r="G3" s="3">
+        <v>187.00750894014899</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.402754843126988</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.21297235591445399</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.130085094546699</v>
+      </c>
+      <c r="L3" s="3">
+        <v>541.48</v>
+      </c>
+      <c r="M3">
+        <f>D3+D4</f>
+        <v>294</v>
+      </c>
+      <c r="N3" s="5">
+        <f>H3+H4</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <f>I3+I4</f>
+        <v>1.591542200769698</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>107</v>
+      </c>
+      <c r="E4" s="2">
+        <v>59</v>
+      </c>
+      <c r="F4" s="2">
+        <v>557</v>
+      </c>
+      <c r="G4" s="3">
+        <v>98.578592447289907</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1.1887873576427099</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.81281787678615303</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.39875457187804603</v>
+      </c>
+      <c r="L4" s="3">
+        <v>700.14666666666596</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>123</v>
+      </c>
+      <c r="E5" s="2">
+        <v>108</v>
+      </c>
+      <c r="F5" s="2">
+        <v>219</v>
+      </c>
+      <c r="G5" s="3">
+        <v>13.5331408032282</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.84148876191758404</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.44520014810202202</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.27190605619461899</v>
+      </c>
+      <c r="L5" s="3">
+        <v>541.76</v>
+      </c>
+      <c r="M5">
+        <f>D5+D6</f>
+        <v>198</v>
+      </c>
+      <c r="N5" s="5">
+        <f>H5+H6</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <f>I5+I6</f>
+        <v>3.3216064848388243</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>75</v>
+      </c>
+      <c r="E6" s="2">
+        <v>56</v>
+      </c>
+      <c r="F6" s="2">
+        <v>172</v>
+      </c>
+      <c r="G6" s="3">
+        <v>15.4550904954394</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2.4801177229212401</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1.69642635703774</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.83258326995254694</v>
+      </c>
+      <c r="L6" s="3">
+        <v>700.42666666666605</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>120</v>
+      </c>
+      <c r="E7" s="2">
+        <v>106</v>
+      </c>
+      <c r="F7" s="2">
+        <v>202</v>
+      </c>
+      <c r="G7" s="3">
+        <v>11.2046407796055</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1.67529443299659</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.88628638006567095</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.54130497321622995</v>
+      </c>
+      <c r="L7" s="3">
+        <v>541.73</v>
+      </c>
+      <c r="M7">
+        <f>D7+D8</f>
+        <v>194</v>
+      </c>
+      <c r="N7" s="5">
+        <f>H7+H8</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <f>I7+I8</f>
+        <v>6.6150296631882499</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>74</v>
+      </c>
+      <c r="E8" s="2">
+        <v>55</v>
+      </c>
+      <c r="F8" s="2">
+        <v>353</v>
+      </c>
+      <c r="G8" s="3">
+        <v>18.751228404205001</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4.9397352301916602</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3.37868563422083</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1.6581398346423599</v>
+      </c>
+      <c r="L8" s="3">
+        <v>700.39666666666596</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2">
+        <v>120</v>
+      </c>
+      <c r="E9" s="2">
+        <v>105</v>
+      </c>
+      <c r="F9" s="2">
+        <v>156</v>
+      </c>
+      <c r="G9" s="3">
+        <v>8.8820433319140903</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3.3168045904575498</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1.75481312397386</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1.07175058095905</v>
+      </c>
+      <c r="L9" s="3">
+        <v>541.76499999999999</v>
+      </c>
+      <c r="M9">
+        <f>D9+D10</f>
+        <v>194</v>
+      </c>
+      <c r="N9" s="5">
+        <f>H9+H10</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <f>I9+I10</f>
+        <v>13.095958693627619</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2">
+        <v>74</v>
+      </c>
+      <c r="E10" s="2">
+        <v>55</v>
+      </c>
+      <c r="F10" s="2">
+        <v>457</v>
+      </c>
+      <c r="G10" s="3">
+        <v>19.6075691167127</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>9.7791541031700699</v>
+      </c>
+      <c r="J10" s="3">
+        <v>6.6890910225328</v>
+      </c>
+      <c r="K10" s="3">
+        <v>3.2829403420666599</v>
+      </c>
+      <c r="L10" s="3">
+        <v>700.43166666666605</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2">
+        <v>123</v>
+      </c>
+      <c r="E11" s="2">
+        <v>103</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1120</v>
+      </c>
+      <c r="G11" s="3">
+        <v>51.909089762776603</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>6.62553314837053</v>
+      </c>
+      <c r="J11" s="3">
+        <v>3.50551523872624</v>
+      </c>
+      <c r="K11" s="3">
+        <v>2.1409724522754501</v>
+      </c>
+      <c r="L11" s="3">
+        <v>541.79</v>
+      </c>
+      <c r="M11">
+        <f>D11+D12</f>
+        <v>196</v>
+      </c>
+      <c r="N11" s="5">
+        <f>H11+H12</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <f>I11+I12</f>
+        <v>26.161393662326429</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2">
+        <v>73</v>
+      </c>
+      <c r="E12" s="2">
+        <v>55</v>
+      </c>
+      <c r="F12" s="2">
+        <v>437</v>
+      </c>
+      <c r="G12" s="3">
+        <v>18.0095699097267</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>19.5358605139559</v>
+      </c>
+      <c r="J12" s="3">
+        <v>13.363304429756299</v>
+      </c>
+      <c r="K12" s="3">
+        <v>6.5588217637625998</v>
+      </c>
+      <c r="L12" s="3">
+        <v>700.45666666666602</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2">
+        <v>529</v>
+      </c>
+      <c r="E13" s="2">
+        <v>102</v>
+      </c>
+      <c r="F13" s="2">
+        <v>21059</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2754.5389152947901</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1.6875000000000001E-2</v>
+      </c>
+      <c r="I13" s="3">
+        <v>11.1298928052199</v>
+      </c>
+      <c r="J13" s="3">
+        <v>6.2668415711930496</v>
+      </c>
+      <c r="K13" s="3">
+        <v>3.5357517373067</v>
+      </c>
+      <c r="L13" s="3">
+        <v>576.57749999999999</v>
+      </c>
+      <c r="M13">
+        <f>D13+D14</f>
+        <v>603</v>
+      </c>
+      <c r="N13" s="5">
+        <f>H13+H14</f>
+        <v>2.2564001264222502E-2</v>
+      </c>
+      <c r="O13" s="6">
+        <f>I13+I14</f>
+        <v>43.664820208321203</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2">
+        <v>74</v>
+      </c>
+      <c r="E14" s="2">
+        <v>55</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3125</v>
+      </c>
+      <c r="G14" s="3">
+        <v>68.649204854203006</v>
+      </c>
+      <c r="H14" s="4">
+        <v>5.6890012642224997E-3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>32.5349274031013</v>
+      </c>
+      <c r="J14" s="3">
+        <v>22.216204406285499</v>
+      </c>
+      <c r="K14" s="3">
+        <v>10.920309704351</v>
+      </c>
+      <c r="L14" s="3">
+        <v>699.22987779182404</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2">
+        <v>64</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1798</v>
+      </c>
+      <c r="E15" s="2">
+        <v>103</v>
+      </c>
+      <c r="F15" s="2">
+        <v>21068</v>
+      </c>
+      <c r="G15" s="3">
+        <v>5444.0100318418199</v>
+      </c>
+      <c r="H15" s="4">
+        <v>6.7187499999999997E-2</v>
+      </c>
+      <c r="I15" s="3">
+        <v>12.218963831867001</v>
+      </c>
+      <c r="J15" s="3">
+        <v>8.1183693625710198</v>
+      </c>
+      <c r="K15" s="3">
+        <v>3.6831964845181902</v>
+      </c>
+      <c r="L15" s="3">
+        <v>680.35312499999998</v>
+      </c>
+      <c r="M15">
+        <f>D15+D16</f>
+        <v>2219</v>
+      </c>
+      <c r="N15" s="5">
+        <f>H15+H16</f>
+        <v>9.0633519629225695E-2</v>
+      </c>
+      <c r="O15" s="6">
+        <f>I15+I16</f>
+        <v>46.952759777444399</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2">
+        <v>64</v>
+      </c>
+      <c r="D16" s="2">
+        <v>421</v>
+      </c>
+      <c r="E16" s="2">
+        <v>55</v>
+      </c>
+      <c r="F16" s="2">
+        <v>21060</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2499.1061437841699</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2.3446019629225701E-2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>34.733795945577398</v>
+      </c>
+      <c r="J16" s="3">
+        <v>24.545187935829599</v>
+      </c>
+      <c r="K16" s="3">
+        <v>11.5019559954149</v>
+      </c>
+      <c r="L16" s="3">
+        <v>723.62584514721902</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2">
+        <v>128</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3343</v>
+      </c>
+      <c r="E17" s="2">
+        <v>103</v>
+      </c>
+      <c r="F17" s="2">
+        <v>21067</v>
+      </c>
+      <c r="G17" s="3">
+        <v>7158.1089461685797</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.12046875</v>
+      </c>
+      <c r="I17" s="3">
+        <v>15.742027523951201</v>
+      </c>
+      <c r="J17" s="3">
+        <v>12.1479229824378</v>
+      </c>
+      <c r="K17" s="3">
+        <v>4.4739559953450296</v>
+      </c>
+      <c r="L17" s="3">
+        <v>790.20781250000005</v>
+      </c>
+      <c r="M17">
+        <f>D17+D18</f>
+        <v>4324</v>
+      </c>
+      <c r="N17" s="5">
+        <f>H17+H18</f>
+        <v>0.16413167898402992</v>
+      </c>
+      <c r="O17" s="6">
+        <f>I17+I18</f>
+        <v>58.950167038917904</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2">
+        <v>128</v>
+      </c>
+      <c r="D18" s="2">
+        <v>981</v>
+      </c>
+      <c r="E18" s="2">
+        <v>55</v>
+      </c>
+      <c r="F18" s="2">
+        <v>21067</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4242.3253669651704</v>
+      </c>
+      <c r="H18" s="4">
+        <v>4.3662928984029903E-2</v>
+      </c>
+      <c r="I18" s="3">
+        <v>43.208139514966703</v>
+      </c>
+      <c r="J18" s="3">
+        <v>32.930955036177998</v>
+      </c>
+      <c r="K18" s="3">
+        <v>13.892898096399801</v>
+      </c>
+      <c r="L18" s="3">
+        <v>780.43855476271301</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2">
+        <v>256</v>
+      </c>
+      <c r="D19" s="2">
+        <v>7441</v>
+      </c>
+      <c r="E19" s="2">
+        <v>102</v>
+      </c>
+      <c r="F19" s="2">
+        <v>21073</v>
+      </c>
+      <c r="G19" s="3">
+        <v>9184.2101257491104</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.27304687500000002</v>
+      </c>
+      <c r="I19" s="3">
+        <v>16.099049401442301</v>
+      </c>
+      <c r="J19" s="3">
+        <v>17.370261648071001</v>
+      </c>
+      <c r="K19" s="3">
+        <v>3.7816835561259401</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1104.8570312500001</v>
+      </c>
+      <c r="M19">
+        <f>D19+D20</f>
+        <v>9717</v>
+      </c>
+      <c r="N19" s="5">
+        <f>H19+H20</f>
+        <v>0.40278745757377699</v>
+      </c>
+      <c r="O19" s="6">
+        <f>I19+I20</f>
+        <v>55.700885488864699</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2">
+        <v>256</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2276</v>
+      </c>
+      <c r="E20" s="2">
+        <v>54</v>
+      </c>
+      <c r="F20" s="2">
+        <v>21071</v>
+      </c>
+      <c r="G20" s="3">
+        <v>6198.5276490864098</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.12974058257377699</v>
+      </c>
+      <c r="I20" s="3">
+        <v>39.601836087422399</v>
+      </c>
+      <c r="J20" s="3">
+        <v>33.611996310045399</v>
+      </c>
+      <c r="K20" s="3">
+        <v>12.0163614882303</v>
+      </c>
+      <c r="L20" s="3">
+        <v>869.11839505385899</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H42" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A074B23-3A9E-44BC-AE9F-0BE7CC6FC860}">
   <dimension ref="B2:L42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:L18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5547,7 +6349,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
         <v>187</v>
@@ -5582,7 +6384,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="2">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2">
         <v>107</v>
@@ -5617,7 +6419,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="2">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2">
         <v>123</v>
@@ -5652,7 +6454,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="2">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2">
         <v>75</v>
@@ -5687,7 +6489,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="2">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="D7" s="2">
         <v>120</v>
@@ -5722,7 +6524,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="2">
-        <v>600</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2">
         <v>74</v>
@@ -5757,7 +6559,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="2">
-        <v>400</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2">
         <v>120</v>
@@ -5792,7 +6594,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="2">
-        <v>1200</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2">
         <v>74</v>
@@ -5827,7 +6629,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="2">
-        <v>800</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2">
         <v>123</v>
@@ -5862,7 +6664,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="2">
-        <v>2400</v>
+        <v>16</v>
       </c>
       <c r="D12" s="2">
         <v>73</v>
@@ -5897,7 +6699,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="2">
-        <v>1600</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2">
         <v>529</v>
@@ -5932,7 +6734,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="2">
-        <v>4746</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2">
         <v>74</v>
@@ -5967,7 +6769,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="2">
-        <v>3200</v>
+        <v>64</v>
       </c>
       <c r="D15" s="2">
         <v>1798</v>
@@ -6002,7 +6804,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="2">
-        <v>9170</v>
+        <v>64</v>
       </c>
       <c r="D16" s="2">
         <v>421</v>
@@ -6037,7 +6839,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="2">
-        <v>6400</v>
+        <v>128</v>
       </c>
       <c r="D17" s="2">
         <v>3343</v>
@@ -6072,7 +6874,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="2">
-        <v>17658</v>
+        <v>128</v>
       </c>
       <c r="D18" s="2">
         <v>981</v>
@@ -6103,699 +6905,74 @@
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H19" s="5"/>
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2">
+        <v>256</v>
+      </c>
+      <c r="D19" s="2">
+        <v>7441</v>
+      </c>
+      <c r="E19" s="2">
+        <v>102</v>
+      </c>
+      <c r="F19" s="2">
+        <v>21073</v>
+      </c>
+      <c r="G19" s="3">
+        <v>9184.2101257491104</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.27304687500000002</v>
+      </c>
+      <c r="I19" s="3">
+        <v>16.099049401442301</v>
+      </c>
+      <c r="J19" s="3">
+        <v>17.370261648071001</v>
+      </c>
+      <c r="K19" s="3">
+        <v>3.7816835561259401</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1104.8570312500001</v>
+      </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H40" s="5"/>
-    </row>
-    <row r="41" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H41" s="5"/>
-    </row>
-    <row r="42" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H42" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A074B23-3A9E-44BC-AE9F-0BE7CC6FC860}">
-  <dimension ref="B2:L42"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2">
-        <v>50</v>
-      </c>
-      <c r="D3" s="2">
-        <v>187</v>
-      </c>
-      <c r="E3" s="2">
-        <v>110</v>
-      </c>
-      <c r="F3" s="2">
-        <v>869</v>
-      </c>
-      <c r="G3" s="3">
-        <v>187.00750894014899</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0.402754843126988</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0.21297235591445399</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0.130085094546699</v>
-      </c>
-      <c r="L3" s="3">
-        <v>541.48</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2">
-        <v>150</v>
-      </c>
-      <c r="D4" s="2">
-        <v>107</v>
-      </c>
-      <c r="E4" s="2">
-        <v>59</v>
-      </c>
-      <c r="F4" s="2">
-        <v>557</v>
-      </c>
-      <c r="G4" s="3">
-        <v>98.578592447289907</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1.1887873576427099</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0.81281787678615303</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0.39875457187804603</v>
-      </c>
-      <c r="L4" s="3">
-        <v>700.14666666666596</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2">
-        <v>100</v>
-      </c>
-      <c r="D5" s="2">
-        <v>123</v>
-      </c>
-      <c r="E5" s="2">
-        <v>108</v>
-      </c>
-      <c r="F5" s="2">
-        <v>219</v>
-      </c>
-      <c r="G5" s="3">
-        <v>13.5331408032282</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0.84148876191758404</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0.44520014810202202</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0.27190605619461899</v>
-      </c>
-      <c r="L5" s="3">
-        <v>541.76</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2">
-        <v>300</v>
-      </c>
-      <c r="D6" s="2">
-        <v>75</v>
-      </c>
-      <c r="E6" s="2">
-        <v>56</v>
-      </c>
-      <c r="F6" s="2">
-        <v>172</v>
-      </c>
-      <c r="G6" s="3">
-        <v>15.4550904954394</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>2.4801177229212401</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1.69642635703774</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0.83258326995254694</v>
-      </c>
-      <c r="L6" s="3">
-        <v>700.42666666666605</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2">
-        <v>200</v>
-      </c>
-      <c r="D7" s="2">
-        <v>120</v>
-      </c>
-      <c r="E7" s="2">
-        <v>106</v>
-      </c>
-      <c r="F7" s="2">
-        <v>202</v>
-      </c>
-      <c r="G7" s="3">
-        <v>11.2046407796055</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1.67529443299659</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0.88628638006567095</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0.54130497321622995</v>
-      </c>
-      <c r="L7" s="3">
-        <v>541.73</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2">
-        <v>600</v>
-      </c>
-      <c r="D8" s="2">
-        <v>74</v>
-      </c>
-      <c r="E8" s="2">
-        <v>55</v>
-      </c>
-      <c r="F8" s="2">
-        <v>353</v>
-      </c>
-      <c r="G8" s="3">
-        <v>18.751228404205001</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>4.9397352301916602</v>
-      </c>
-      <c r="J8" s="3">
-        <v>3.37868563422083</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1.6581398346423599</v>
-      </c>
-      <c r="L8" s="3">
-        <v>700.39666666666596</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2">
-        <v>400</v>
-      </c>
-      <c r="D9" s="2">
-        <v>120</v>
-      </c>
-      <c r="E9" s="2">
-        <v>105</v>
-      </c>
-      <c r="F9" s="2">
-        <v>156</v>
-      </c>
-      <c r="G9" s="3">
-        <v>8.8820433319140903</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>3.3168045904575498</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1.75481312397386</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1.07175058095905</v>
-      </c>
-      <c r="L9" s="3">
-        <v>541.76499999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1200</v>
-      </c>
-      <c r="D10" s="2">
-        <v>74</v>
-      </c>
-      <c r="E10" s="2">
-        <v>55</v>
-      </c>
-      <c r="F10" s="2">
-        <v>457</v>
-      </c>
-      <c r="G10" s="3">
-        <v>19.6075691167127</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>9.7791541031700699</v>
-      </c>
-      <c r="J10" s="3">
-        <v>6.6890910225328</v>
-      </c>
-      <c r="K10" s="3">
-        <v>3.2829403420666599</v>
-      </c>
-      <c r="L10" s="3">
-        <v>700.43166666666605</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2">
-        <v>800</v>
-      </c>
-      <c r="D11" s="2">
-        <v>123</v>
-      </c>
-      <c r="E11" s="2">
-        <v>103</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1120</v>
-      </c>
-      <c r="G11" s="3">
-        <v>51.909089762776603</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
-        <v>6.62553314837053</v>
-      </c>
-      <c r="J11" s="3">
-        <v>3.50551523872624</v>
-      </c>
-      <c r="K11" s="3">
-        <v>2.1409724522754501</v>
-      </c>
-      <c r="L11" s="3">
-        <v>541.79</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2400</v>
-      </c>
-      <c r="D12" s="2">
-        <v>73</v>
-      </c>
-      <c r="E12" s="2">
-        <v>55</v>
-      </c>
-      <c r="F12" s="2">
-        <v>437</v>
-      </c>
-      <c r="G12" s="3">
-        <v>18.0095699097267</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>19.5358605139559</v>
-      </c>
-      <c r="J12" s="3">
-        <v>13.363304429756299</v>
-      </c>
-      <c r="K12" s="3">
-        <v>6.5588217637625998</v>
-      </c>
-      <c r="L12" s="3">
-        <v>700.45666666666602</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1600</v>
-      </c>
-      <c r="D13" s="2">
-        <v>529</v>
-      </c>
-      <c r="E13" s="2">
-        <v>102</v>
-      </c>
-      <c r="F13" s="2">
-        <v>21059</v>
-      </c>
-      <c r="G13" s="3">
-        <v>2754.5389152947901</v>
-      </c>
-      <c r="H13" s="4">
-        <v>1.6875000000000001E-2</v>
-      </c>
-      <c r="I13" s="3">
-        <v>11.1298928052199</v>
-      </c>
-      <c r="J13" s="3">
-        <v>6.2668415711930496</v>
-      </c>
-      <c r="K13" s="3">
-        <v>3.5357517373067</v>
-      </c>
-      <c r="L13" s="3">
-        <v>576.57749999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2">
-        <v>4746</v>
-      </c>
-      <c r="D14" s="2">
-        <v>74</v>
-      </c>
-      <c r="E14" s="2">
-        <v>55</v>
-      </c>
-      <c r="F14" s="2">
-        <v>3125</v>
-      </c>
-      <c r="G14" s="3">
-        <v>68.649204854203006</v>
-      </c>
-      <c r="H14" s="4">
-        <v>5.6890012642224997E-3</v>
-      </c>
-      <c r="I14" s="3">
-        <v>32.5349274031013</v>
-      </c>
-      <c r="J14" s="3">
-        <v>22.216204406285499</v>
-      </c>
-      <c r="K14" s="3">
-        <v>10.920309704351</v>
-      </c>
-      <c r="L14" s="3">
-        <v>699.22987779182404</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2">
-        <v>3200</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1798</v>
-      </c>
-      <c r="E15" s="2">
-        <v>103</v>
-      </c>
-      <c r="F15" s="2">
-        <v>21068</v>
-      </c>
-      <c r="G15" s="3">
-        <v>5444.0100318418199</v>
-      </c>
-      <c r="H15" s="4">
-        <v>6.7187499999999997E-2</v>
-      </c>
-      <c r="I15" s="3">
-        <v>12.218963831867001</v>
-      </c>
-      <c r="J15" s="3">
-        <v>8.1183693625710198</v>
-      </c>
-      <c r="K15" s="3">
-        <v>3.6831964845181902</v>
-      </c>
-      <c r="L15" s="3">
-        <v>680.35312499999998</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2">
-        <v>9170</v>
-      </c>
-      <c r="D16" s="2">
-        <v>421</v>
-      </c>
-      <c r="E16" s="2">
-        <v>55</v>
-      </c>
-      <c r="F16" s="2">
-        <v>21060</v>
-      </c>
-      <c r="G16" s="3">
-        <v>2499.1061437841699</v>
-      </c>
-      <c r="H16" s="4">
-        <v>2.3446019629225701E-2</v>
-      </c>
-      <c r="I16" s="3">
-        <v>34.733795945577398</v>
-      </c>
-      <c r="J16" s="3">
-        <v>24.545187935829599</v>
-      </c>
-      <c r="K16" s="3">
-        <v>11.5019559954149</v>
-      </c>
-      <c r="L16" s="3">
-        <v>723.62584514721902</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="2">
-        <v>6400</v>
-      </c>
-      <c r="D17" s="2">
-        <v>3343</v>
-      </c>
-      <c r="E17" s="2">
-        <v>103</v>
-      </c>
-      <c r="F17" s="2">
-        <v>21067</v>
-      </c>
-      <c r="G17" s="3">
-        <v>7158.1089461685797</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0.12046875</v>
-      </c>
-      <c r="I17" s="3">
-        <v>15.742027523951201</v>
-      </c>
-      <c r="J17" s="3">
-        <v>12.1479229824378</v>
-      </c>
-      <c r="K17" s="3">
-        <v>4.4739559953450296</v>
-      </c>
-      <c r="L17" s="3">
-        <v>790.20781250000005</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="2">
-        <v>17658</v>
-      </c>
-      <c r="D18" s="2">
-        <v>981</v>
-      </c>
-      <c r="E18" s="2">
-        <v>55</v>
-      </c>
-      <c r="F18" s="2">
-        <v>21067</v>
-      </c>
-      <c r="G18" s="3">
-        <v>4242.3253669651704</v>
-      </c>
-      <c r="H18" s="4">
-        <v>4.3662928984029903E-2</v>
-      </c>
-      <c r="I18" s="3">
-        <v>43.208139514966703</v>
-      </c>
-      <c r="J18" s="3">
-        <v>32.930955036177998</v>
-      </c>
-      <c r="K18" s="3">
-        <v>13.892898096399801</v>
-      </c>
-      <c r="L18" s="3">
-        <v>780.43855476271301</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H20" s="5"/>
+      <c r="C20" s="2">
+        <v>256</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2276</v>
+      </c>
+      <c r="E20" s="2">
+        <v>54</v>
+      </c>
+      <c r="F20" s="2">
+        <v>21071</v>
+      </c>
+      <c r="G20" s="3">
+        <v>6198.5276490864098</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.12974058257377699</v>
+      </c>
+      <c r="I20" s="3">
+        <v>39.601836087422399</v>
+      </c>
+      <c r="J20" s="3">
+        <v>33.611996310045399</v>
+      </c>
+      <c r="K20" s="3">
+        <v>12.0163614882303</v>
+      </c>
+      <c r="L20" s="3">
+        <v>869.11839505385899</v>
+      </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H21" s="5"/>
